--- a/content/species/data/nba_example_RLI_data_trim_marine_org.xlsx
+++ b/content/species/data/nba_example_RLI_data_trim_marine_org.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\species\quarto\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_repos\species\quarto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63B6E5E-2547-4114-AD74-AB8BD09440BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573D4835-C0D5-4D18-B55C-9AC40603FDBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{027AC6A8-209D-4E42-8E53-EE844CC37963}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{027AC6A8-209D-4E42-8E53-EE844CC37963}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -77,7 +77,7 @@
     <t>Coral</t>
   </si>
   <si>
-    <t>Sharks (incl. Rays &amp; Chimaeras)</t>
+    <t>Sharks (incl. rays &amp; chimaeras)</t>
   </si>
 </sst>
 </file>
@@ -931,16 +931,16 @@
   <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.578125" customWidth="1"/>
-    <col min="6" max="6" width="16.15625" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -963,7 +963,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -983,7 +983,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>0.83626184614448895</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>0.83554826254234005</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>0.83555112413333998</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>0.83298736000771501</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>0.83083064724219002</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>0.82882601974450898</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>0.82755191936754502</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>0.82561929760935704</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>0.82434193898449803</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>0.82212166542701504</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>0.82075962893087795</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>0.81925515070681298</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>0.81767730336448596</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>0.81691653579434398</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>0.81481790179986802</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>0.81398841909318198</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>0.812680193075067</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>0.81116559466808302</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>0.81017564376572304</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>0.808403006791236</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>0.80714667384840999</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>0.80505717005253996</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>0.80178306958581103</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>0.79869254703664105</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>0.79631573508472497</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>0.79386906755069298</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>0.79081388009236098</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>0.78778845456334101</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>0.78491319361059497</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>0.78184283243560704</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>0.78005392263639906</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>0.77699805345296102</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>0.77491836529649205</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>0.77230245356717897</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>0.77043141687401695</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -1882,6 +1882,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d08e37f2-beba-4595-a3e8-aa91f032b3fc" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de6781d5-cbdf-44cc-b8b1-919d4413b058">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A9251B87A2689245AA9FD86C69F20C58" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3a4ec884e7468e8b6decba7ff9ee350d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="de6781d5-cbdf-44cc-b8b1-919d4413b058" xmlns:ns3="d08e37f2-beba-4595-a3e8-aa91f032b3fc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b02cf9d369237c4b82eaa1e33230624f" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2153,19 +2166,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d08e37f2-beba-4595-a3e8-aa91f032b3fc" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de6781d5-cbdf-44cc-b8b1-919d4413b058">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2176,6 +2176,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23E37123-21DE-4118-A7E3-15EA5DE94433}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d08e37f2-beba-4595-a3e8-aa91f032b3fc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="de6781d5-cbdf-44cc-b8b1-919d4413b058"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F82E2B73-6AE1-4A12-9F01-5A557A94ADBC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2195,18 +2207,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23E37123-21DE-4118-A7E3-15EA5DE94433}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d08e37f2-beba-4595-a3e8-aa91f032b3fc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="de6781d5-cbdf-44cc-b8b1-919d4413b058"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B46C6F7B-4D94-434F-B4A8-F4B534EF89A3}">
   <ds:schemaRefs>
